--- a/measured.xlsx
+++ b/measured.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="amateur" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="porn" sheetId="4" r:id="rId4"/>
     <sheet name="products" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,9 +34,6 @@
     <t>We have the right label in the output (something specific enough to identify the main subject)</t>
   </si>
   <si>
-    <t>Low noise</t>
-  </si>
-  <si>
     <t>We don't have wrong labels (too generic terms don't count)</t>
   </si>
   <si>
@@ -356,13 +353,16 @@
   </si>
   <si>
     <t>malinshopper-wine</t>
+  </si>
+  <si>
+    <t>Signal / noise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -374,6 +374,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -394,8 +406,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -409,7 +423,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,9 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -776,11 +792,11 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -800,44 +816,44 @@
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -860,7 +876,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -883,7 +899,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -906,7 +922,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
@@ -929,7 +945,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -952,7 +968,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
@@ -975,7 +991,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -998,7 +1014,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -1021,7 +1037,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -1044,7 +1060,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1067,7 +1083,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
@@ -1090,7 +1106,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -1113,7 +1129,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1136,7 +1152,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3">
         <v>5</v>
@@ -1159,7 +1175,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -1182,7 +1198,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -1205,7 +1221,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -1228,7 +1244,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -1251,7 +1267,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -1274,7 +1290,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -1297,6 +1313,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1311,7 +1328,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1344,11 +1361,11 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1368,44 +1385,44 @@
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -1428,7 +1445,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
@@ -1451,7 +1468,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -1474,7 +1491,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
@@ -1497,7 +1514,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1520,7 +1537,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -1543,7 +1560,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -1566,7 +1583,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1589,7 +1606,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -1612,7 +1629,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -1635,7 +1652,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
         <v>4</v>
@@ -1658,7 +1675,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -1681,7 +1698,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1704,7 +1721,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1727,7 +1744,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -1750,7 +1767,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -1773,7 +1790,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
@@ -1796,7 +1813,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1819,7 +1836,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -1842,7 +1859,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -1888,7 +1905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1921,11 +1938,11 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1945,44 +1962,44 @@
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -2005,7 +2022,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>4</v>
@@ -2028,7 +2045,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -2051,7 +2068,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -2074,7 +2091,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
@@ -2097,7 +2114,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -2120,7 +2137,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -2143,7 +2160,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -2166,7 +2183,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -2189,7 +2206,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -2212,7 +2229,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -2235,7 +2252,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3">
         <v>4</v>
@@ -2258,7 +2275,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
@@ -2281,7 +2298,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -2304,7 +2321,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2327,7 +2344,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3">
         <v>3</v>
@@ -2350,7 +2367,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -2373,7 +2390,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2396,7 +2413,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -2419,7 +2436,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -2465,7 +2482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2502,11 +2519,11 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2530,55 +2547,55 @@
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2587,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -2610,7 +2627,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -2619,7 +2636,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -2642,7 +2659,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -2651,7 +2668,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -2674,7 +2691,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
@@ -2683,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -2706,7 +2723,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -2715,7 +2732,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -2738,7 +2755,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -2747,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -2770,7 +2787,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -2779,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
@@ -2802,7 +2819,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -2811,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2834,7 +2851,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -2843,7 +2860,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -2866,7 +2883,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -2875,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -2898,7 +2915,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -2907,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -2930,7 +2947,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -2939,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -2962,7 +2979,7 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
@@ -2971,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -2994,7 +3011,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -3003,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -3026,7 +3043,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -3035,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3">
         <v>4</v>
@@ -3058,7 +3075,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -3067,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -3090,7 +3107,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -3099,7 +3116,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -3122,7 +3139,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
@@ -3131,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -3154,7 +3171,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -3163,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -3186,7 +3203,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -3195,7 +3212,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
@@ -3241,9 +3258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3276,11 +3293,11 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3300,44 +3317,44 @@
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
+      <c r="G6" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -3360,7 +3377,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -3383,7 +3400,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -3406,7 +3423,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -3429,7 +3446,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -3452,7 +3469,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
@@ -3475,7 +3492,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
@@ -3498,7 +3515,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
@@ -3521,7 +3538,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
@@ -3544,7 +3561,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -3567,7 +3584,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5">
         <v>5</v>
@@ -3590,7 +3607,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5">
         <v>5</v>
@@ -3613,7 +3630,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5">
         <v>5</v>
@@ -3636,7 +3653,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5">
         <v>5</v>
@@ -3659,7 +3676,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
@@ -3682,7 +3699,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -3705,7 +3722,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -3728,7 +3745,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5">
         <v>3</v>
@@ -3751,7 +3768,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5">
         <v>4</v>
@@ -3774,7 +3791,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>

--- a/measured.xlsx
+++ b/measured.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="8800" windowWidth="26360" windowHeight="8800" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="amateur" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
   <si>
     <t>Grades are from 0 to 5 (poor to great)</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Signal / noise</t>
+  </si>
+  <si>
+    <t>Clarifai</t>
   </si>
 </sst>
 </file>
@@ -406,8 +409,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -423,9 +450,33 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="27">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,11 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -767,7 +818,7 @@
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +829,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,7 +842,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -804,7 +855,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -813,7 +864,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -827,8 +878,11 @@
         <v>6</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +904,14 @@
       <c r="G6" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -873,8 +933,14 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -896,8 +962,14 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -919,8 +991,14 @@
       <c r="G9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -942,8 +1020,14 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -965,8 +1049,14 @@
       <c r="G11" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -988,8 +1078,14 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1011,8 +1107,14 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1034,8 +1136,14 @@
       <c r="G14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1057,8 +1165,14 @@
       <c r="G15" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1080,8 +1194,14 @@
       <c r="G16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1103,8 +1223,14 @@
       <c r="G17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1126,8 +1252,14 @@
       <c r="G18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1149,8 +1281,14 @@
       <c r="G19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1172,8 +1310,14 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -1195,8 +1339,14 @@
       <c r="G21" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1218,8 +1368,14 @@
       <c r="G22" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -1241,8 +1397,14 @@
       <c r="G23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1264,8 +1426,14 @@
       <c r="G24" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>67</v>
       </c>
@@ -1287,8 +1455,14 @@
       <c r="G25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -1309,6 +1483,12 @@
       </c>
       <c r="G26" s="4">
         <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1324,11 +1504,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1336,7 +1516,7 @@
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1527,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1540,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -1373,7 +1553,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1382,7 +1562,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1396,8 +1576,11 @@
         <v>6</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1419,8 +1602,14 @@
       <c r="G6" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1442,8 +1631,14 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1465,8 +1660,14 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1488,8 +1689,14 @@
       <c r="G9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1511,8 +1718,14 @@
       <c r="G10" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1534,8 +1747,14 @@
       <c r="G11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -1557,8 +1776,14 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1580,8 +1805,14 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1603,8 +1834,14 @@
       <c r="G14" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1626,8 +1863,14 @@
       <c r="G15" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1649,8 +1892,14 @@
       <c r="G16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1672,8 +1921,14 @@
       <c r="G17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H17" s="2">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1695,8 +1950,14 @@
       <c r="G18" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1718,8 +1979,14 @@
       <c r="G19" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -1741,8 +2008,14 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1764,8 +2037,14 @@
       <c r="G21" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -1787,8 +2066,14 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -1810,8 +2095,14 @@
       <c r="G23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -1833,8 +2124,14 @@
       <c r="G24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -1856,8 +2153,14 @@
       <c r="G25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
@@ -1879,8 +2182,14 @@
       <c r="G26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1901,11 +2210,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1913,7 +2222,7 @@
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +2233,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +2246,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -1950,7 +2259,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1959,7 +2268,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1973,8 +2282,11 @@
         <v>6</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1996,8 +2308,14 @@
       <c r="G6" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2019,8 +2337,14 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2042,8 +2366,14 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2065,8 +2395,14 @@
       <c r="G9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2088,8 +2424,14 @@
       <c r="G10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2111,8 +2453,14 @@
       <c r="G11" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2134,8 +2482,14 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -2157,8 +2511,14 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2180,8 +2540,14 @@
       <c r="G14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2203,8 +2569,14 @@
       <c r="G15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -2226,8 +2598,14 @@
       <c r="G16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2249,8 +2627,14 @@
       <c r="G17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -2272,8 +2656,14 @@
       <c r="G18" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2295,8 +2685,14 @@
       <c r="G19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2318,8 +2714,14 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -2341,8 +2743,14 @@
       <c r="G21" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -2364,8 +2772,14 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -2387,8 +2801,14 @@
       <c r="G23" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2410,8 +2830,14 @@
       <c r="G24" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -2433,8 +2859,14 @@
       <c r="G25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
@@ -2456,8 +2888,14 @@
       <c r="G26" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2478,11 +2916,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2490,7 +2928,7 @@
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2941,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2956,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -2533,7 +2971,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2544,7 +2982,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -2560,8 +2998,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2592,8 +3033,17 @@
       <c r="J6" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -2624,8 +3074,17 @@
       <c r="J7" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -2656,8 +3115,17 @@
       <c r="J8" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -2688,8 +3156,11 @@
       <c r="J9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -2720,8 +3191,17 @@
       <c r="J10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -2752,8 +3232,17 @@
       <c r="J11" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -2784,8 +3273,17 @@
       <c r="J12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K12" s="2">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -2816,8 +3314,17 @@
       <c r="J13" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -2848,8 +3355,17 @@
       <c r="J14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -2880,8 +3396,17 @@
       <c r="J15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -2912,8 +3437,17 @@
       <c r="J16" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K16" s="2">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -2944,8 +3478,17 @@
       <c r="J17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3519,17 @@
       <c r="J18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
@@ -3008,8 +3560,17 @@
       <c r="J19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
@@ -3040,8 +3601,17 @@
       <c r="J20" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
@@ -3072,8 +3642,17 @@
       <c r="J21" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
@@ -3104,8 +3683,17 @@
       <c r="J22" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K22" s="2">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -3136,8 +3724,17 @@
       <c r="J23" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>98</v>
       </c>
@@ -3168,8 +3765,17 @@
       <c r="J24" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>100</v>
       </c>
@@ -3200,8 +3806,17 @@
       <c r="J25" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
@@ -3232,8 +3847,17 @@
       <c r="J26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3246,6 +3870,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3256,11 +3881,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3268,7 +3893,7 @@
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3904,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3917,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
@@ -3305,7 +3930,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3314,7 +3939,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3328,8 +3953,11 @@
         <v>6</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3351,8 +3979,14 @@
       <c r="G6" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>76</v>
       </c>
@@ -3374,8 +4008,14 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -3397,8 +4037,14 @@
       <c r="G8" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
@@ -3420,8 +4066,14 @@
       <c r="G9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
@@ -3443,8 +4095,14 @@
       <c r="G10" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
@@ -3466,8 +4124,14 @@
       <c r="G11" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>88</v>
       </c>
@@ -3489,8 +4153,14 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -3512,8 +4182,14 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
@@ -3535,8 +4211,14 @@
       <c r="G14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
@@ -3558,8 +4240,14 @@
       <c r="G15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
@@ -3581,8 +4269,14 @@
       <c r="G16" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
@@ -3604,8 +4298,14 @@
       <c r="G17" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
@@ -3627,8 +4327,14 @@
       <c r="G18" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
@@ -3650,8 +4356,14 @@
       <c r="G19" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>102</v>
       </c>
@@ -3673,8 +4385,14 @@
       <c r="G20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
@@ -3696,8 +4414,14 @@
       <c r="G21" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -3719,8 +4443,14 @@
       <c r="G22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -3742,8 +4472,14 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -3765,8 +4501,14 @@
       <c r="G24" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
@@ -3788,8 +4530,14 @@
       <c r="G25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>109</v>
       </c>
@@ -3811,9 +4559,16 @@
       <c r="G26" s="4">
         <v>3</v>
       </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
